--- a/WIN/Librería de Trabajo/Gestión de Proyecto/WIN-CP.xlsx
+++ b/WIN/Librería de Trabajo/Gestión de Proyecto/WIN-CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\WIN\Librería de Trabajo\Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Cinco-Inc\WIN\Librería de Trabajo\Gestión de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Work In Nestle</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Redactar plan de proyecto</t>
+  </si>
+  <si>
+    <t>Especificar CU4</t>
+  </si>
+  <si>
+    <t>Especificar CU5</t>
+  </si>
+  <si>
+    <t>Implementar CU4</t>
+  </si>
+  <si>
+    <t>Implementar CU5</t>
   </si>
 </sst>
 </file>
@@ -720,9 +732,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -731,6 +740,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DX1048574"/>
+  <dimension ref="A1:DX1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,8 +1150,8 @@
       <c r="D1" s="62"/>
       <c r="E1" s="72"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1747,11 +1759,11 @@
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1869,10 +1881,10 @@
       <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <v>42462</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="73"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2515,176 +2527,176 @@
         <v>59</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="75">
+      <c r="J9" s="78">
         <f>J8</f>
         <v>42462</v>
       </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78">
         <f>Q8</f>
         <v>42469</v>
       </c>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75">
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78">
         <f>X8</f>
         <v>42476</v>
       </c>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75">
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78">
         <f>AE8</f>
         <v>42483</v>
       </c>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75">
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78">
         <f>AL8</f>
         <v>42490</v>
       </c>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75">
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78">
         <f>AS8</f>
         <v>42497</v>
       </c>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75">
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78">
         <f>AZ8</f>
         <v>42504</v>
       </c>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="75"/>
-      <c r="BG9" s="75">
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="78"/>
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78">
         <f>BG8</f>
         <v>42511</v>
       </c>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75">
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="78"/>
+      <c r="BK9" s="78"/>
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78">
         <f>BN8</f>
         <v>42518</v>
       </c>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="75">
+      <c r="BO9" s="78"/>
+      <c r="BP9" s="78"/>
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="78"/>
+      <c r="BU9" s="78">
         <f>BU8</f>
         <v>42525</v>
       </c>
-      <c r="BV9" s="75"/>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="75"/>
-      <c r="CA9" s="75"/>
-      <c r="CB9" s="75">
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="78"/>
+      <c r="BZ9" s="78"/>
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78">
         <f>CB8</f>
         <v>42532</v>
       </c>
-      <c r="CC9" s="75"/>
-      <c r="CD9" s="75"/>
-      <c r="CE9" s="75"/>
-      <c r="CF9" s="75"/>
-      <c r="CG9" s="75"/>
-      <c r="CH9" s="75"/>
-      <c r="CI9" s="75">
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="78"/>
+      <c r="CE9" s="78"/>
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="78">
         <f>CI8</f>
         <v>42539</v>
       </c>
-      <c r="CJ9" s="75"/>
-      <c r="CK9" s="75"/>
-      <c r="CL9" s="75"/>
-      <c r="CM9" s="75"/>
-      <c r="CN9" s="75"/>
-      <c r="CO9" s="75"/>
-      <c r="CP9" s="75">
+      <c r="CJ9" s="78"/>
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="78"/>
+      <c r="CO9" s="78"/>
+      <c r="CP9" s="78">
         <f>CP8</f>
         <v>42546</v>
       </c>
-      <c r="CQ9" s="75"/>
-      <c r="CR9" s="75"/>
-      <c r="CS9" s="75"/>
-      <c r="CT9" s="75"/>
-      <c r="CU9" s="75"/>
-      <c r="CV9" s="75"/>
-      <c r="CW9" s="75">
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="78"/>
+      <c r="CT9" s="78"/>
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78">
         <f>CW8</f>
         <v>42553</v>
       </c>
-      <c r="CX9" s="75"/>
-      <c r="CY9" s="75"/>
-      <c r="CZ9" s="75"/>
-      <c r="DA9" s="75"/>
-      <c r="DB9" s="75"/>
-      <c r="DC9" s="75"/>
-      <c r="DD9" s="75">
+      <c r="CX9" s="78"/>
+      <c r="CY9" s="78"/>
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="78"/>
+      <c r="DD9" s="78">
         <f>DD8</f>
         <v>42560</v>
       </c>
-      <c r="DE9" s="75"/>
-      <c r="DF9" s="75"/>
-      <c r="DG9" s="75"/>
-      <c r="DH9" s="75"/>
-      <c r="DI9" s="75"/>
-      <c r="DJ9" s="75"/>
-      <c r="DK9" s="75">
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="78"/>
+      <c r="DI9" s="78"/>
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78">
         <f>DK8</f>
         <v>42567</v>
       </c>
-      <c r="DL9" s="75"/>
-      <c r="DM9" s="75"/>
-      <c r="DN9" s="75"/>
-      <c r="DO9" s="75"/>
-      <c r="DP9" s="75"/>
-      <c r="DQ9" s="75"/>
-      <c r="DR9" s="75">
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="78"/>
+      <c r="DN9" s="78"/>
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="78">
         <f>DR8</f>
         <v>42574</v>
       </c>
-      <c r="DS9" s="75"/>
-      <c r="DT9" s="75"/>
-      <c r="DU9" s="75"/>
-      <c r="DV9" s="75"/>
-      <c r="DW9" s="75"/>
-      <c r="DX9" s="75"/>
+      <c r="DS9" s="78"/>
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="78"/>
+      <c r="DX9" s="78"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2861,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="27" t="str">
-        <f t="shared" ref="H11:H46" ca="1" si="4">IF(E11="","",IF((E11-TODAY())&lt;0,"Entregado",E11-TODAY()))</f>
+        <f t="shared" ref="H11:H52" ca="1" si="4">IF(E11="","",IF((E11-TODAY())&lt;0,"Entregado",E11-TODAY()))</f>
         <v>Entregado</v>
       </c>
       <c r="I11" s="35"/>
@@ -4241,7 +4253,7 @@
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="str">
-        <f t="shared" ref="A21:A28" ca="1" si="5">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A21,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))),OFFSET(A21,-1,0,1,1)&amp;".1",LEFT(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A21,-1,0,1,1),LEN(OFFSET(A21,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A21:A30" ca="1" si="5">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A21,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))),OFFSET(A21,-1,0,1,1)&amp;".1",LEFT(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A21,-1,0,1,1),LEN(OFFSET(A21,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -4659,17 +4671,14 @@
         <v>4.4</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="H24" s="27"/>
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
@@ -4791,143 +4800,140 @@
       <c r="DW24" s="35"/>
       <c r="DX24" s="35"/>
     </row>
-    <row r="25" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>4.5</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-      <c r="BX25" s="11"/>
-      <c r="BY25" s="11"/>
-      <c r="BZ25" s="11"/>
-      <c r="CA25" s="11"/>
-      <c r="CB25" s="11"/>
-      <c r="CC25" s="11"/>
-      <c r="CD25" s="11"/>
-      <c r="CE25" s="11"/>
-      <c r="CF25" s="11"/>
-      <c r="CG25" s="11"/>
-      <c r="CH25" s="11"/>
-      <c r="CI25" s="11"/>
-      <c r="CJ25" s="11"/>
-      <c r="CK25" s="11"/>
-      <c r="CL25" s="11"/>
-      <c r="CM25" s="11"/>
-      <c r="CN25" s="11"/>
-      <c r="CO25" s="11"/>
-      <c r="CP25" s="11"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
-      <c r="CS25" s="11"/>
-      <c r="CT25" s="11"/>
-      <c r="CU25" s="11"/>
-      <c r="CV25" s="11"/>
-      <c r="CW25" s="11"/>
-      <c r="CX25" s="11"/>
-      <c r="CY25" s="11"/>
-      <c r="CZ25" s="11"/>
-      <c r="DA25" s="11"/>
-      <c r="DB25" s="11"/>
-      <c r="DC25" s="11"/>
-      <c r="DD25" s="11"/>
-      <c r="DE25" s="11"/>
-      <c r="DF25" s="11"/>
-      <c r="DG25" s="11"/>
-      <c r="DH25" s="11"/>
-      <c r="DI25" s="11"/>
-      <c r="DJ25" s="11"/>
-      <c r="DK25" s="11"/>
-      <c r="DL25" s="11"/>
-      <c r="DM25" s="11"/>
-      <c r="DN25" s="11"/>
-      <c r="DO25" s="11"/>
-      <c r="DP25" s="11"/>
-      <c r="DQ25" s="11"/>
-      <c r="DR25" s="11"/>
-      <c r="DS25" s="11"/>
-      <c r="DT25" s="11"/>
-      <c r="DU25" s="11"/>
-      <c r="DV25" s="11"/>
-      <c r="DW25" s="11"/>
-      <c r="DX25" s="11"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="35"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="35"/>
+      <c r="AX25" s="35"/>
+      <c r="AY25" s="35"/>
+      <c r="AZ25" s="35"/>
+      <c r="BA25" s="35"/>
+      <c r="BB25" s="35"/>
+      <c r="BC25" s="35"/>
+      <c r="BD25" s="35"/>
+      <c r="BE25" s="35"/>
+      <c r="BF25" s="35"/>
+      <c r="BG25" s="35"/>
+      <c r="BH25" s="35"/>
+      <c r="BI25" s="35"/>
+      <c r="BJ25" s="35"/>
+      <c r="BK25" s="35"/>
+      <c r="BL25" s="35"/>
+      <c r="BM25" s="35"/>
+      <c r="BN25" s="35"/>
+      <c r="BO25" s="35"/>
+      <c r="BP25" s="35"/>
+      <c r="BQ25" s="35"/>
+      <c r="BR25" s="35"/>
+      <c r="BS25" s="35"/>
+      <c r="BT25" s="35"/>
+      <c r="BU25" s="35"/>
+      <c r="BV25" s="35"/>
+      <c r="BW25" s="35"/>
+      <c r="BX25" s="35"/>
+      <c r="BY25" s="35"/>
+      <c r="BZ25" s="35"/>
+      <c r="CA25" s="35"/>
+      <c r="CB25" s="35"/>
+      <c r="CC25" s="35"/>
+      <c r="CD25" s="35"/>
+      <c r="CE25" s="35"/>
+      <c r="CF25" s="35"/>
+      <c r="CG25" s="35"/>
+      <c r="CH25" s="35"/>
+      <c r="CI25" s="35"/>
+      <c r="CJ25" s="35"/>
+      <c r="CK25" s="35"/>
+      <c r="CL25" s="35"/>
+      <c r="CM25" s="35"/>
+      <c r="CN25" s="35"/>
+      <c r="CO25" s="35"/>
+      <c r="CP25" s="35"/>
+      <c r="CQ25" s="35"/>
+      <c r="CR25" s="35"/>
+      <c r="CS25" s="35"/>
+      <c r="CT25" s="35"/>
+      <c r="CU25" s="35"/>
+      <c r="CV25" s="35"/>
+      <c r="CW25" s="35"/>
+      <c r="CX25" s="35"/>
+      <c r="CY25" s="35"/>
+      <c r="CZ25" s="35"/>
+      <c r="DA25" s="35"/>
+      <c r="DB25" s="35"/>
+      <c r="DC25" s="35"/>
+      <c r="DD25" s="35"/>
+      <c r="DE25" s="35"/>
+      <c r="DF25" s="35"/>
+      <c r="DG25" s="35"/>
+      <c r="DH25" s="35"/>
+      <c r="DI25" s="35"/>
+      <c r="DJ25" s="35"/>
+      <c r="DK25" s="35"/>
+      <c r="DL25" s="35"/>
+      <c r="DM25" s="35"/>
+      <c r="DN25" s="35"/>
+      <c r="DO25" s="35"/>
+      <c r="DP25" s="35"/>
+      <c r="DQ25" s="35"/>
+      <c r="DR25" s="35"/>
+      <c r="DS25" s="35"/>
+      <c r="DT25" s="35"/>
+      <c r="DU25" s="35"/>
+      <c r="DV25" s="35"/>
+      <c r="DW25" s="35"/>
+      <c r="DX25" s="35"/>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="str">
@@ -4935,7 +4941,7 @@
         <v>4.6</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="67"/>
@@ -4946,134 +4952,134 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="11"/>
-      <c r="BP26" s="11"/>
-      <c r="BQ26" s="11"/>
-      <c r="BR26" s="11"/>
-      <c r="BS26" s="11"/>
-      <c r="BT26" s="11"/>
-      <c r="BU26" s="11"/>
-      <c r="BV26" s="11"/>
-      <c r="BW26" s="11"/>
-      <c r="BX26" s="11"/>
-      <c r="BY26" s="11"/>
-      <c r="BZ26" s="11"/>
-      <c r="CA26" s="11"/>
-      <c r="CB26" s="11"/>
-      <c r="CC26" s="11"/>
-      <c r="CD26" s="11"/>
-      <c r="CE26" s="11"/>
-      <c r="CF26" s="11"/>
-      <c r="CG26" s="11"/>
-      <c r="CH26" s="11"/>
-      <c r="CI26" s="11"/>
-      <c r="CJ26" s="11"/>
-      <c r="CK26" s="11"/>
-      <c r="CL26" s="11"/>
-      <c r="CM26" s="11"/>
-      <c r="CN26" s="11"/>
-      <c r="CO26" s="11"/>
-      <c r="CP26" s="11"/>
-      <c r="CQ26" s="11"/>
-      <c r="CR26" s="11"/>
-      <c r="CS26" s="11"/>
-      <c r="CT26" s="11"/>
-      <c r="CU26" s="11"/>
-      <c r="CV26" s="11"/>
-      <c r="CW26" s="11"/>
-      <c r="CX26" s="11"/>
-      <c r="CY26" s="11"/>
-      <c r="CZ26" s="11"/>
-      <c r="DA26" s="11"/>
-      <c r="DB26" s="11"/>
-      <c r="DC26" s="11"/>
-      <c r="DD26" s="11"/>
-      <c r="DE26" s="11"/>
-      <c r="DF26" s="11"/>
-      <c r="DG26" s="11"/>
-      <c r="DH26" s="11"/>
-      <c r="DI26" s="11"/>
-      <c r="DJ26" s="11"/>
-      <c r="DK26" s="11"/>
-      <c r="DL26" s="11"/>
-      <c r="DM26" s="11"/>
-      <c r="DN26" s="11"/>
-      <c r="DO26" s="11"/>
-      <c r="DP26" s="11"/>
-      <c r="DQ26" s="11"/>
-      <c r="DR26" s="11"/>
-      <c r="DS26" s="11"/>
-      <c r="DT26" s="11"/>
-      <c r="DU26" s="11"/>
-      <c r="DV26" s="11"/>
-      <c r="DW26" s="11"/>
-      <c r="DX26" s="11"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="35"/>
+      <c r="BB26" s="35"/>
+      <c r="BC26" s="35"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="35"/>
+      <c r="BF26" s="35"/>
+      <c r="BG26" s="35"/>
+      <c r="BH26" s="35"/>
+      <c r="BI26" s="35"/>
+      <c r="BJ26" s="35"/>
+      <c r="BK26" s="35"/>
+      <c r="BL26" s="35"/>
+      <c r="BM26" s="35"/>
+      <c r="BN26" s="35"/>
+      <c r="BO26" s="35"/>
+      <c r="BP26" s="35"/>
+      <c r="BQ26" s="35"/>
+      <c r="BR26" s="35"/>
+      <c r="BS26" s="35"/>
+      <c r="BT26" s="35"/>
+      <c r="BU26" s="35"/>
+      <c r="BV26" s="35"/>
+      <c r="BW26" s="35"/>
+      <c r="BX26" s="35"/>
+      <c r="BY26" s="35"/>
+      <c r="BZ26" s="35"/>
+      <c r="CA26" s="35"/>
+      <c r="CB26" s="35"/>
+      <c r="CC26" s="35"/>
+      <c r="CD26" s="35"/>
+      <c r="CE26" s="35"/>
+      <c r="CF26" s="35"/>
+      <c r="CG26" s="35"/>
+      <c r="CH26" s="35"/>
+      <c r="CI26" s="35"/>
+      <c r="CJ26" s="35"/>
+      <c r="CK26" s="35"/>
+      <c r="CL26" s="35"/>
+      <c r="CM26" s="35"/>
+      <c r="CN26" s="35"/>
+      <c r="CO26" s="35"/>
+      <c r="CP26" s="35"/>
+      <c r="CQ26" s="35"/>
+      <c r="CR26" s="35"/>
+      <c r="CS26" s="35"/>
+      <c r="CT26" s="35"/>
+      <c r="CU26" s="35"/>
+      <c r="CV26" s="35"/>
+      <c r="CW26" s="35"/>
+      <c r="CX26" s="35"/>
+      <c r="CY26" s="35"/>
+      <c r="CZ26" s="35"/>
+      <c r="DA26" s="35"/>
+      <c r="DB26" s="35"/>
+      <c r="DC26" s="35"/>
+      <c r="DD26" s="35"/>
+      <c r="DE26" s="35"/>
+      <c r="DF26" s="35"/>
+      <c r="DG26" s="35"/>
+      <c r="DH26" s="35"/>
+      <c r="DI26" s="35"/>
+      <c r="DJ26" s="35"/>
+      <c r="DK26" s="35"/>
+      <c r="DL26" s="35"/>
+      <c r="DM26" s="35"/>
+      <c r="DN26" s="35"/>
+      <c r="DO26" s="35"/>
+      <c r="DP26" s="35"/>
+      <c r="DQ26" s="35"/>
+      <c r="DR26" s="35"/>
+      <c r="DS26" s="35"/>
+      <c r="DT26" s="35"/>
+      <c r="DU26" s="35"/>
+      <c r="DV26" s="35"/>
+      <c r="DW26" s="35"/>
+      <c r="DX26" s="35"/>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>4.7</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="67"/>
@@ -5211,7 +5217,7 @@
         <v>4.8</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="67"/>
@@ -5344,20 +5350,18 @@
       <c r="DX28" s="11"/>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),VALUE(OFFSET(A29,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>5</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
       <c r="H29" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -5485,11 +5489,11 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),OFFSET(A30,-1,0,1,1)&amp;".1",LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A30,-1,0,1,1),LEN(OFFSET(A30,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.10</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="67"/>
@@ -5506,9 +5510,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -5624,18 +5626,20 @@
       <c r="DX30" s="11"/>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+      <c r="A31" s="37">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),VALUE(OFFSET(A31,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>5</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -5764,10 +5768,10 @@
     <row r="32" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="67"/>
@@ -5784,7 +5788,9 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="O32" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -5902,10 +5908,10 @@
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="67"/>
@@ -6038,20 +6044,18 @@
       <c r="DX33" s="11"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),VALUE(OFFSET(A34,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>6</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
+      <c r="A34" s="30" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),OFFSET(A34,-1,0,1,1)&amp;".1",LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A34,-1,0,1,1),LEN(OFFSET(A34,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -6179,21 +6183,18 @@
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
+        <f t="shared" ref="A35:A36" ca="1" si="6">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="67"/>
       <c r="E35" s="67"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="H35" s="27"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -6317,21 +6318,18 @@
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))),OFFSET(A36,-1,0,1,1)&amp;".1",LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A36,-1,0,1,1),LEN(OFFSET(A36,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.5</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
-      <c r="H36" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="H36" s="27"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
@@ -6456,10 +6454,10 @@
     <row r="37" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A37,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))),OFFSET(A37,-1,0,1,1)&amp;".1",LEFT(OFFSET(A37,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A37,-1,0,1,1),LEN(OFFSET(A37,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A37,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="67"/>
@@ -6594,10 +6592,10 @@
     <row r="38" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A38" s="37">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),VALUE(OFFSET(A38,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>9</v>
@@ -6734,10 +6732,10 @@
     <row r="39" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),OFFSET(A39,-1,0,1,1)&amp;".1",LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A39,-1,0,1,1),LEN(OFFSET(A39,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="67"/>
@@ -6870,20 +6868,18 @@
       <c r="DX39" s="11"/>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),VALUE(OFFSET(A40,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>8</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
+      <c r="A40" s="30" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -7010,18 +7006,18 @@
       <c r="DX40" s="11"/>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="str">
+      <c r="A41" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A41,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))),OFFSET(A41,-1,0,1,1)&amp;".1",LEFT(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A41,-1,0,1,1),LEN(OFFSET(A41,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>8.1</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
+        <v>6.3</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
       <c r="H41" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -7148,22 +7144,19 @@
       <c r="DX41" s="11"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A42,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))),OFFSET(A42,-1,0,1,1)&amp;".1",LEFT(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A42,-1,0,1,1),LEN(OFFSET(A42,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>8.2</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="45"/>
+      <c r="A42" s="30" t="str">
+        <f t="shared" ref="A42:A43" ca="1" si="7">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A42,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))),OFFSET(A42,-1,0,1,1)&amp;".1",LEFT(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A42,-1,0,1,1),LEN(OFFSET(A42,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>6.4</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="32"/>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -7286,24 +7279,19 @@
       <c r="DX42" s="11"/>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A43,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",1))),VALUE(OFFSET(A43,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A43,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>9</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="A43" s="30" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -7426,18 +7414,20 @@
       <c r="DX43" s="11"/>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A44,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))),OFFSET(A44,-1,0,1,1)&amp;".1",LEFT(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A44,-1,0,1,1),LEN(OFFSET(A44,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>9.1</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
+      <c r="A44" s="37">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A44,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))),VALUE(OFFSET(A44,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -7564,18 +7554,18 @@
       <c r="DX44" s="11"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="str">
+      <c r="A45" s="30" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),OFFSET(A45,-1,0,1,1)&amp;".1",LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A45,-1,0,1,1),LEN(OFFSET(A45,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>9.2</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
+        <v>7.1</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -7701,14 +7691,21 @@
       <c r="DW45" s="11"/>
       <c r="DX45" s="11"/>
     </row>
-    <row r="46" spans="1:128" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A46" s="37">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A46,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))),VALUE(OFFSET(A46,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A46,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>8</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -7834,98 +7831,917 @@
       <c r="DW46" s="11"/>
       <c r="DX46" s="11"/>
     </row>
-    <row r="47" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),OFFSET(A47,-1,0,1,1)&amp;".1",LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A47,-1,0,1,1),LEN(OFFSET(A47,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>8.1</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
+      <c r="BM47" s="11"/>
+      <c r="BN47" s="11"/>
+      <c r="BO47" s="11"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="11"/>
+      <c r="BR47" s="11"/>
+      <c r="BS47" s="11"/>
+      <c r="BT47" s="11"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="11"/>
+      <c r="BW47" s="11"/>
+      <c r="BX47" s="11"/>
+      <c r="BY47" s="11"/>
+      <c r="BZ47" s="11"/>
+      <c r="CA47" s="11"/>
+      <c r="CB47" s="11"/>
+      <c r="CC47" s="11"/>
+      <c r="CD47" s="11"/>
+      <c r="CE47" s="11"/>
+      <c r="CF47" s="11"/>
+      <c r="CG47" s="11"/>
+      <c r="CH47" s="11"/>
+      <c r="CI47" s="11"/>
+      <c r="CJ47" s="11"/>
+      <c r="CK47" s="11"/>
+      <c r="CL47" s="11"/>
+      <c r="CM47" s="11"/>
+      <c r="CN47" s="11"/>
+      <c r="CO47" s="11"/>
+      <c r="CP47" s="11"/>
+      <c r="CQ47" s="11"/>
+      <c r="CR47" s="11"/>
+      <c r="CS47" s="11"/>
+      <c r="CT47" s="11"/>
+      <c r="CU47" s="11"/>
+      <c r="CV47" s="11"/>
+      <c r="CW47" s="11"/>
+      <c r="CX47" s="11"/>
+      <c r="CY47" s="11"/>
+      <c r="CZ47" s="11"/>
+      <c r="DA47" s="11"/>
+      <c r="DB47" s="11"/>
+      <c r="DC47" s="11"/>
+      <c r="DD47" s="11"/>
+      <c r="DE47" s="11"/>
+      <c r="DF47" s="11"/>
+      <c r="DG47" s="11"/>
+      <c r="DH47" s="11"/>
+      <c r="DI47" s="11"/>
+      <c r="DJ47" s="11"/>
+      <c r="DK47" s="11"/>
+      <c r="DL47" s="11"/>
+      <c r="DM47" s="11"/>
+      <c r="DN47" s="11"/>
+      <c r="DO47" s="11"/>
+      <c r="DP47" s="11"/>
+      <c r="DQ47" s="11"/>
+      <c r="DR47" s="11"/>
+      <c r="DS47" s="11"/>
+      <c r="DT47" s="11"/>
+      <c r="DU47" s="11"/>
+      <c r="DV47" s="11"/>
+      <c r="DW47" s="11"/>
+      <c r="DX47" s="11"/>
+    </row>
+    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A48,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))),OFFSET(A48,-1,0,1,1)&amp;".1",LEFT(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A48,-1,0,1,1),LEN(OFFSET(A48,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>8.2</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="11"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+      <c r="BM48" s="11"/>
+      <c r="BN48" s="11"/>
+      <c r="BO48" s="11"/>
+      <c r="BP48" s="11"/>
+      <c r="BQ48" s="11"/>
+      <c r="BR48" s="11"/>
+      <c r="BS48" s="11"/>
+      <c r="BT48" s="11"/>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="11"/>
+      <c r="BW48" s="11"/>
+      <c r="BX48" s="11"/>
+      <c r="BY48" s="11"/>
+      <c r="BZ48" s="11"/>
+      <c r="CA48" s="11"/>
+      <c r="CB48" s="11"/>
+      <c r="CC48" s="11"/>
+      <c r="CD48" s="11"/>
+      <c r="CE48" s="11"/>
+      <c r="CF48" s="11"/>
+      <c r="CG48" s="11"/>
+      <c r="CH48" s="11"/>
+      <c r="CI48" s="11"/>
+      <c r="CJ48" s="11"/>
+      <c r="CK48" s="11"/>
+      <c r="CL48" s="11"/>
+      <c r="CM48" s="11"/>
+      <c r="CN48" s="11"/>
+      <c r="CO48" s="11"/>
+      <c r="CP48" s="11"/>
+      <c r="CQ48" s="11"/>
+      <c r="CR48" s="11"/>
+      <c r="CS48" s="11"/>
+      <c r="CT48" s="11"/>
+      <c r="CU48" s="11"/>
+      <c r="CV48" s="11"/>
+      <c r="CW48" s="11"/>
+      <c r="CX48" s="11"/>
+      <c r="CY48" s="11"/>
+      <c r="CZ48" s="11"/>
+      <c r="DA48" s="11"/>
+      <c r="DB48" s="11"/>
+      <c r="DC48" s="11"/>
+      <c r="DD48" s="11"/>
+      <c r="DE48" s="11"/>
+      <c r="DF48" s="11"/>
+      <c r="DG48" s="11"/>
+      <c r="DH48" s="11"/>
+      <c r="DI48" s="11"/>
+      <c r="DJ48" s="11"/>
+      <c r="DK48" s="11"/>
+      <c r="DL48" s="11"/>
+      <c r="DM48" s="11"/>
+      <c r="DN48" s="11"/>
+      <c r="DO48" s="11"/>
+      <c r="DP48" s="11"/>
+      <c r="DQ48" s="11"/>
+      <c r="DR48" s="11"/>
+      <c r="DS48" s="11"/>
+      <c r="DT48" s="11"/>
+      <c r="DU48" s="11"/>
+      <c r="DV48" s="11"/>
+      <c r="DW48" s="11"/>
+      <c r="DX48" s="11"/>
+    </row>
+    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A49" s="37">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),VALUE(OFFSET(A49,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>9</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="11"/>
+      <c r="AZ49" s="11"/>
+      <c r="BA49" s="11"/>
+      <c r="BB49" s="11"/>
+      <c r="BC49" s="11"/>
+      <c r="BD49" s="11"/>
+      <c r="BE49" s="11"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="11"/>
+      <c r="BH49" s="11"/>
+      <c r="BI49" s="11"/>
+      <c r="BJ49" s="11"/>
+      <c r="BK49" s="11"/>
+      <c r="BL49" s="11"/>
+      <c r="BM49" s="11"/>
+      <c r="BN49" s="11"/>
+      <c r="BO49" s="11"/>
+      <c r="BP49" s="11"/>
+      <c r="BQ49" s="11"/>
+      <c r="BR49" s="11"/>
+      <c r="BS49" s="11"/>
+      <c r="BT49" s="11"/>
+      <c r="BU49" s="11"/>
+      <c r="BV49" s="11"/>
+      <c r="BW49" s="11"/>
+      <c r="BX49" s="11"/>
+      <c r="BY49" s="11"/>
+      <c r="BZ49" s="11"/>
+      <c r="CA49" s="11"/>
+      <c r="CB49" s="11"/>
+      <c r="CC49" s="11"/>
+      <c r="CD49" s="11"/>
+      <c r="CE49" s="11"/>
+      <c r="CF49" s="11"/>
+      <c r="CG49" s="11"/>
+      <c r="CH49" s="11"/>
+      <c r="CI49" s="11"/>
+      <c r="CJ49" s="11"/>
+      <c r="CK49" s="11"/>
+      <c r="CL49" s="11"/>
+      <c r="CM49" s="11"/>
+      <c r="CN49" s="11"/>
+      <c r="CO49" s="11"/>
+      <c r="CP49" s="11"/>
+      <c r="CQ49" s="11"/>
+      <c r="CR49" s="11"/>
+      <c r="CS49" s="11"/>
+      <c r="CT49" s="11"/>
+      <c r="CU49" s="11"/>
+      <c r="CV49" s="11"/>
+      <c r="CW49" s="11"/>
+      <c r="CX49" s="11"/>
+      <c r="CY49" s="11"/>
+      <c r="CZ49" s="11"/>
+      <c r="DA49" s="11"/>
+      <c r="DB49" s="11"/>
+      <c r="DC49" s="11"/>
+      <c r="DD49" s="11"/>
+      <c r="DE49" s="11"/>
+      <c r="DF49" s="11"/>
+      <c r="DG49" s="11"/>
+      <c r="DH49" s="11"/>
+      <c r="DI49" s="11"/>
+      <c r="DJ49" s="11"/>
+      <c r="DK49" s="11"/>
+      <c r="DL49" s="11"/>
+      <c r="DM49" s="11"/>
+      <c r="DN49" s="11"/>
+      <c r="DO49" s="11"/>
+      <c r="DP49" s="11"/>
+      <c r="DQ49" s="11"/>
+      <c r="DR49" s="11"/>
+      <c r="DS49" s="11"/>
+      <c r="DT49" s="11"/>
+      <c r="DU49" s="11"/>
+      <c r="DV49" s="11"/>
+      <c r="DW49" s="11"/>
+      <c r="DX49" s="11"/>
+    </row>
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),OFFSET(A50,-1,0,1,1)&amp;".1",LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A50,-1,0,1,1),LEN(OFFSET(A50,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>9.1</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="11"/>
+      <c r="AZ50" s="11"/>
+      <c r="BA50" s="11"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="11"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="11"/>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="11"/>
+      <c r="BM50" s="11"/>
+      <c r="BN50" s="11"/>
+      <c r="BO50" s="11"/>
+      <c r="BP50" s="11"/>
+      <c r="BQ50" s="11"/>
+      <c r="BR50" s="11"/>
+      <c r="BS50" s="11"/>
+      <c r="BT50" s="11"/>
+      <c r="BU50" s="11"/>
+      <c r="BV50" s="11"/>
+      <c r="BW50" s="11"/>
+      <c r="BX50" s="11"/>
+      <c r="BY50" s="11"/>
+      <c r="BZ50" s="11"/>
+      <c r="CA50" s="11"/>
+      <c r="CB50" s="11"/>
+      <c r="CC50" s="11"/>
+      <c r="CD50" s="11"/>
+      <c r="CE50" s="11"/>
+      <c r="CF50" s="11"/>
+      <c r="CG50" s="11"/>
+      <c r="CH50" s="11"/>
+      <c r="CI50" s="11"/>
+      <c r="CJ50" s="11"/>
+      <c r="CK50" s="11"/>
+      <c r="CL50" s="11"/>
+      <c r="CM50" s="11"/>
+      <c r="CN50" s="11"/>
+      <c r="CO50" s="11"/>
+      <c r="CP50" s="11"/>
+      <c r="CQ50" s="11"/>
+      <c r="CR50" s="11"/>
+      <c r="CS50" s="11"/>
+      <c r="CT50" s="11"/>
+      <c r="CU50" s="11"/>
+      <c r="CV50" s="11"/>
+      <c r="CW50" s="11"/>
+      <c r="CX50" s="11"/>
+      <c r="CY50" s="11"/>
+      <c r="CZ50" s="11"/>
+      <c r="DA50" s="11"/>
+      <c r="DB50" s="11"/>
+      <c r="DC50" s="11"/>
+      <c r="DD50" s="11"/>
+      <c r="DE50" s="11"/>
+      <c r="DF50" s="11"/>
+      <c r="DG50" s="11"/>
+      <c r="DH50" s="11"/>
+      <c r="DI50" s="11"/>
+      <c r="DJ50" s="11"/>
+      <c r="DK50" s="11"/>
+      <c r="DL50" s="11"/>
+      <c r="DM50" s="11"/>
+      <c r="DN50" s="11"/>
+      <c r="DO50" s="11"/>
+      <c r="DP50" s="11"/>
+      <c r="DQ50" s="11"/>
+      <c r="DR50" s="11"/>
+      <c r="DS50" s="11"/>
+      <c r="DT50" s="11"/>
+      <c r="DU50" s="11"/>
+      <c r="DV50" s="11"/>
+      <c r="DW50" s="11"/>
+      <c r="DX50" s="11"/>
+    </row>
+    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),OFFSET(A51,-1,0,1,1)&amp;".1",LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A51,-1,0,1,1),LEN(OFFSET(A51,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>9.2</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="11"/>
+      <c r="AZ51" s="11"/>
+      <c r="BA51" s="11"/>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="11"/>
+      <c r="BE51" s="11"/>
+      <c r="BF51" s="11"/>
+      <c r="BG51" s="11"/>
+      <c r="BH51" s="11"/>
+      <c r="BI51" s="11"/>
+      <c r="BJ51" s="11"/>
+      <c r="BK51" s="11"/>
+      <c r="BL51" s="11"/>
+      <c r="BM51" s="11"/>
+      <c r="BN51" s="11"/>
+      <c r="BO51" s="11"/>
+      <c r="BP51" s="11"/>
+      <c r="BQ51" s="11"/>
+      <c r="BR51" s="11"/>
+      <c r="BS51" s="11"/>
+      <c r="BT51" s="11"/>
+      <c r="BU51" s="11"/>
+      <c r="BV51" s="11"/>
+      <c r="BW51" s="11"/>
+      <c r="BX51" s="11"/>
+      <c r="BY51" s="11"/>
+      <c r="BZ51" s="11"/>
+      <c r="CA51" s="11"/>
+      <c r="CB51" s="11"/>
+      <c r="CC51" s="11"/>
+      <c r="CD51" s="11"/>
+      <c r="CE51" s="11"/>
+      <c r="CF51" s="11"/>
+      <c r="CG51" s="11"/>
+      <c r="CH51" s="11"/>
+      <c r="CI51" s="11"/>
+      <c r="CJ51" s="11"/>
+      <c r="CK51" s="11"/>
+      <c r="CL51" s="11"/>
+      <c r="CM51" s="11"/>
+      <c r="CN51" s="11"/>
+      <c r="CO51" s="11"/>
+      <c r="CP51" s="11"/>
+      <c r="CQ51" s="11"/>
+      <c r="CR51" s="11"/>
+      <c r="CS51" s="11"/>
+      <c r="CT51" s="11"/>
+      <c r="CU51" s="11"/>
+      <c r="CV51" s="11"/>
+      <c r="CW51" s="11"/>
+      <c r="CX51" s="11"/>
+      <c r="CY51" s="11"/>
+      <c r="CZ51" s="11"/>
+      <c r="DA51" s="11"/>
+      <c r="DB51" s="11"/>
+      <c r="DC51" s="11"/>
+      <c r="DD51" s="11"/>
+      <c r="DE51" s="11"/>
+      <c r="DF51" s="11"/>
+      <c r="DG51" s="11"/>
+      <c r="DH51" s="11"/>
+      <c r="DI51" s="11"/>
+      <c r="DJ51" s="11"/>
+      <c r="DK51" s="11"/>
+      <c r="DL51" s="11"/>
+      <c r="DM51" s="11"/>
+      <c r="DN51" s="11"/>
+      <c r="DO51" s="11"/>
+      <c r="DP51" s="11"/>
+      <c r="DQ51" s="11"/>
+      <c r="DR51" s="11"/>
+      <c r="DS51" s="11"/>
+      <c r="DT51" s="11"/>
+      <c r="DU51" s="11"/>
+      <c r="DV51" s="11"/>
+      <c r="DW51" s="11"/>
+      <c r="DX51" s="11"/>
+    </row>
+    <row r="52" spans="1:128" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="11"/>
+      <c r="AZ52" s="11"/>
+      <c r="BA52" s="11"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="11"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="11"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="11"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="11"/>
+      <c r="BL52" s="11"/>
+      <c r="BM52" s="11"/>
+      <c r="BN52" s="11"/>
+      <c r="BO52" s="11"/>
+      <c r="BP52" s="11"/>
+      <c r="BQ52" s="11"/>
+      <c r="BR52" s="11"/>
+      <c r="BS52" s="11"/>
+      <c r="BT52" s="11"/>
+      <c r="BU52" s="11"/>
+      <c r="BV52" s="11"/>
+      <c r="BW52" s="11"/>
+      <c r="BX52" s="11"/>
+      <c r="BY52" s="11"/>
+      <c r="BZ52" s="11"/>
+      <c r="CA52" s="11"/>
+      <c r="CB52" s="11"/>
+      <c r="CC52" s="11"/>
+      <c r="CD52" s="11"/>
+      <c r="CE52" s="11"/>
+      <c r="CF52" s="11"/>
+      <c r="CG52" s="11"/>
+      <c r="CH52" s="11"/>
+      <c r="CI52" s="11"/>
+      <c r="CJ52" s="11"/>
+      <c r="CK52" s="11"/>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="11"/>
+      <c r="CN52" s="11"/>
+      <c r="CO52" s="11"/>
+      <c r="CP52" s="11"/>
+      <c r="CQ52" s="11"/>
+      <c r="CR52" s="11"/>
+      <c r="CS52" s="11"/>
+      <c r="CT52" s="11"/>
+      <c r="CU52" s="11"/>
+      <c r="CV52" s="11"/>
+      <c r="CW52" s="11"/>
+      <c r="CX52" s="11"/>
+      <c r="CY52" s="11"/>
+      <c r="CZ52" s="11"/>
+      <c r="DA52" s="11"/>
+      <c r="DB52" s="11"/>
+      <c r="DC52" s="11"/>
+      <c r="DD52" s="11"/>
+      <c r="DE52" s="11"/>
+      <c r="DF52" s="11"/>
+      <c r="DG52" s="11"/>
+      <c r="DH52" s="11"/>
+      <c r="DI52" s="11"/>
+      <c r="DJ52" s="11"/>
+      <c r="DK52" s="11"/>
+      <c r="DL52" s="11"/>
+      <c r="DM52" s="11"/>
+      <c r="DN52" s="11"/>
+      <c r="DO52" s="11"/>
+      <c r="DP52" s="11"/>
+      <c r="DQ52" s="11"/>
+      <c r="DR52" s="11"/>
+      <c r="DS52" s="11"/>
+      <c r="DT52" s="11"/>
+      <c r="DU52" s="11"/>
+      <c r="DV52" s="11"/>
+      <c r="DW52" s="11"/>
+      <c r="DX52" s="11"/>
+    </row>
+    <row r="53" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:128" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
+    <row r="57" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B57" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56" t="s">
+    <row r="58" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B58" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56" t="s">
+    <row r="59" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B59" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56" t="s">
+    <row r="60" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B60" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
+    <row r="61" spans="1:128" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B61" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8864,28 +9680,20 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="AS9:AY9"/>
-    <mergeCell ref="AZ9:BF9"/>
     <mergeCell ref="BG9:BM9"/>
     <mergeCell ref="BN9:BT9"/>
     <mergeCell ref="BU9:CA9"/>
@@ -8896,6 +9704,16 @@
     <mergeCell ref="CP9:CV9"/>
     <mergeCell ref="CW9:DC9"/>
     <mergeCell ref="DD9:DJ9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AK9"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="AS9:AY9"/>
+    <mergeCell ref="AZ9:BF9"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/WIN/Librería de Trabajo/Gestión de Proyecto/WIN-CP.xlsx
+++ b/WIN/Librería de Trabajo/Gestión de Proyecto/WIN-CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Cinco-Inc\WIN\Librería de Trabajo\Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\Ciclo VII\Gestión de la Configuración\Proyecto De Curso\Cinco-Inc\WIN\Librería de Trabajo\Gestión de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Work In Nestle</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Implementar CU5</t>
+  </si>
+  <si>
+    <t>DQ, DO, RP,JQ,AO</t>
+  </si>
+  <si>
+    <t>Entregado</t>
   </si>
 </sst>
 </file>
@@ -732,6 +738,9 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -740,9 +749,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,7 +1129,7 @@
   <dimension ref="A1:DX1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1150,8 +1156,8 @@
       <c r="D1" s="62"/>
       <c r="E1" s="72"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1525,7 +1531,7 @@
       </c>
       <c r="H4" s="10">
         <f ca="1">TODAY()</f>
-        <v>42476</v>
+        <v>42490</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="4"/>
@@ -1759,11 +1765,11 @@
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1881,10 +1887,10 @@
       <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="78">
         <v>42462</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="73"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2527,176 +2533,176 @@
         <v>59</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="78">
+      <c r="J9" s="75">
         <f>J8</f>
         <v>42462</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78">
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75">
         <f>Q8</f>
         <v>42469</v>
       </c>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78">
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75">
         <f>X8</f>
         <v>42476</v>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78">
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75">
         <f>AE8</f>
         <v>42483</v>
       </c>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78">
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75">
         <f>AL8</f>
         <v>42490</v>
       </c>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78">
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75">
         <f>AS8</f>
         <v>42497</v>
       </c>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="78">
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75">
         <f>AZ8</f>
         <v>42504</v>
       </c>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="78"/>
-      <c r="BF9" s="78"/>
-      <c r="BG9" s="78">
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="75">
         <f>BG8</f>
         <v>42511</v>
       </c>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="78"/>
-      <c r="BK9" s="78"/>
-      <c r="BL9" s="78"/>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="78">
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="75">
         <f>BN8</f>
         <v>42518</v>
       </c>
-      <c r="BO9" s="78"/>
-      <c r="BP9" s="78"/>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="78"/>
-      <c r="BU9" s="78">
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="75"/>
+      <c r="BS9" s="75"/>
+      <c r="BT9" s="75"/>
+      <c r="BU9" s="75">
         <f>BU8</f>
         <v>42525</v>
       </c>
-      <c r="BV9" s="78"/>
-      <c r="BW9" s="78"/>
-      <c r="BX9" s="78"/>
-      <c r="BY9" s="78"/>
-      <c r="BZ9" s="78"/>
-      <c r="CA9" s="78"/>
-      <c r="CB9" s="78">
+      <c r="BV9" s="75"/>
+      <c r="BW9" s="75"/>
+      <c r="BX9" s="75"/>
+      <c r="BY9" s="75"/>
+      <c r="BZ9" s="75"/>
+      <c r="CA9" s="75"/>
+      <c r="CB9" s="75">
         <f>CB8</f>
         <v>42532</v>
       </c>
-      <c r="CC9" s="78"/>
-      <c r="CD9" s="78"/>
-      <c r="CE9" s="78"/>
-      <c r="CF9" s="78"/>
-      <c r="CG9" s="78"/>
-      <c r="CH9" s="78"/>
-      <c r="CI9" s="78">
+      <c r="CC9" s="75"/>
+      <c r="CD9" s="75"/>
+      <c r="CE9" s="75"/>
+      <c r="CF9" s="75"/>
+      <c r="CG9" s="75"/>
+      <c r="CH9" s="75"/>
+      <c r="CI9" s="75">
         <f>CI8</f>
         <v>42539</v>
       </c>
-      <c r="CJ9" s="78"/>
-      <c r="CK9" s="78"/>
-      <c r="CL9" s="78"/>
-      <c r="CM9" s="78"/>
-      <c r="CN9" s="78"/>
-      <c r="CO9" s="78"/>
-      <c r="CP9" s="78">
+      <c r="CJ9" s="75"/>
+      <c r="CK9" s="75"/>
+      <c r="CL9" s="75"/>
+      <c r="CM9" s="75"/>
+      <c r="CN9" s="75"/>
+      <c r="CO9" s="75"/>
+      <c r="CP9" s="75">
         <f>CP8</f>
         <v>42546</v>
       </c>
-      <c r="CQ9" s="78"/>
-      <c r="CR9" s="78"/>
-      <c r="CS9" s="78"/>
-      <c r="CT9" s="78"/>
-      <c r="CU9" s="78"/>
-      <c r="CV9" s="78"/>
-      <c r="CW9" s="78">
+      <c r="CQ9" s="75"/>
+      <c r="CR9" s="75"/>
+      <c r="CS9" s="75"/>
+      <c r="CT9" s="75"/>
+      <c r="CU9" s="75"/>
+      <c r="CV9" s="75"/>
+      <c r="CW9" s="75">
         <f>CW8</f>
         <v>42553</v>
       </c>
-      <c r="CX9" s="78"/>
-      <c r="CY9" s="78"/>
-      <c r="CZ9" s="78"/>
-      <c r="DA9" s="78"/>
-      <c r="DB9" s="78"/>
-      <c r="DC9" s="78"/>
-      <c r="DD9" s="78">
+      <c r="CX9" s="75"/>
+      <c r="CY9" s="75"/>
+      <c r="CZ9" s="75"/>
+      <c r="DA9" s="75"/>
+      <c r="DB9" s="75"/>
+      <c r="DC9" s="75"/>
+      <c r="DD9" s="75">
         <f>DD8</f>
         <v>42560</v>
       </c>
-      <c r="DE9" s="78"/>
-      <c r="DF9" s="78"/>
-      <c r="DG9" s="78"/>
-      <c r="DH9" s="78"/>
-      <c r="DI9" s="78"/>
-      <c r="DJ9" s="78"/>
-      <c r="DK9" s="78">
+      <c r="DE9" s="75"/>
+      <c r="DF9" s="75"/>
+      <c r="DG9" s="75"/>
+      <c r="DH9" s="75"/>
+      <c r="DI9" s="75"/>
+      <c r="DJ9" s="75"/>
+      <c r="DK9" s="75">
         <f>DK8</f>
         <v>42567</v>
       </c>
-      <c r="DL9" s="78"/>
-      <c r="DM9" s="78"/>
-      <c r="DN9" s="78"/>
-      <c r="DO9" s="78"/>
-      <c r="DP9" s="78"/>
-      <c r="DQ9" s="78"/>
-      <c r="DR9" s="78">
+      <c r="DL9" s="75"/>
+      <c r="DM9" s="75"/>
+      <c r="DN9" s="75"/>
+      <c r="DO9" s="75"/>
+      <c r="DP9" s="75"/>
+      <c r="DQ9" s="75"/>
+      <c r="DR9" s="75">
         <f>DR8</f>
         <v>42574</v>
       </c>
-      <c r="DS9" s="78"/>
-      <c r="DT9" s="78"/>
-      <c r="DU9" s="78"/>
-      <c r="DV9" s="78"/>
-      <c r="DW9" s="78"/>
-      <c r="DX9" s="78"/>
+      <c r="DS9" s="75"/>
+      <c r="DT9" s="75"/>
+      <c r="DU9" s="75"/>
+      <c r="DV9" s="75"/>
+      <c r="DW9" s="75"/>
+      <c r="DX9" s="75"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -3152,13 +3158,20 @@
       <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="D13" s="67">
+        <v>42506</v>
+      </c>
+      <c r="E13" s="67">
+        <v>42512</v>
+      </c>
+      <c r="F13" s="39">
+        <v>7</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
@@ -3175,13 +3188,13 @@
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
       <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
       <c r="AE13" s="41"/>
       <c r="AF13" s="41"/>
       <c r="AG13" s="41"/>
@@ -3289,14 +3302,23 @@
       <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="C14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="67">
+        <v>42506</v>
+      </c>
+      <c r="E14" s="67">
+        <v>42511</v>
+      </c>
+      <c r="F14" s="33">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -3313,12 +3335,12 @@
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35"/>
@@ -3427,14 +3449,23 @@
       <c r="B15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="C15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="67">
+        <v>42511</v>
+      </c>
+      <c r="E15" s="67">
+        <v>42512</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -3457,7 +3488,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
@@ -9694,6 +9725,16 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AK9"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="AS9:AY9"/>
+    <mergeCell ref="AZ9:BF9"/>
     <mergeCell ref="BG9:BM9"/>
     <mergeCell ref="BN9:BT9"/>
     <mergeCell ref="BU9:CA9"/>
@@ -9704,16 +9745,6 @@
     <mergeCell ref="CP9:CV9"/>
     <mergeCell ref="CW9:DC9"/>
     <mergeCell ref="DD9:DJ9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="AS9:AY9"/>
-    <mergeCell ref="AZ9:BF9"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
